--- a/output_by_subject/ME331.xlsx
+++ b/output_by_subject/ME331.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3171,6 +3171,1370 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1901ME01</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1901ME03</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1901ME04</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1901ME06</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1901ME07</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1901ME08</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1901ME10</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1901ME11</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1901ME12</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1901ME13</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1901ME14</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1901ME15</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1901ME16</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1901ME17</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1901ME18</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1901ME19</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1901ME20</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1901ME21</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1901ME22</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1901ME23</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1901ME24</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1901ME25</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1901ME26</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>1901ME27</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1901ME28</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1901ME29</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1901ME30</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1901ME31</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1901ME32</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1901ME33</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1901ME35</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1901ME36</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1901ME37</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1901ME38</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1901ME39</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1901ME40</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1901ME41</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>1901ME42</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1901ME43</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1901ME44</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1901ME45</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1901ME46</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1901ME48</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1901ME49</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1901ME50</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1901ME51</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1901ME52</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1901ME53</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1901ME55</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1901ME56</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>1901ME58</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1901ME59</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1901ME61</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1901ME62</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1901ME63</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1901ME65</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1901ME66</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1901ME67</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1901ME68</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1901ME69</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1901ME72</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1901ME73</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>ME331</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
